--- a/web/public/curve.xlsx
+++ b/web/public/curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\bertybots\OracRTD\web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AD7F86-1065-4444-AD79-B166FF3995FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D468A-6726-42D1-AEE0-4FF906FE8078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="27780" windowHeight="21000" activeTab="3" xr2:uid="{6CF590DF-C69D-4E19-9604-D4A300C2BE28}"/>
+    <workbookView xWindow="0" yWindow="2355" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{6CF590DF-C69D-4E19-9604-D4A300C2BE28}"/>
   </bookViews>
   <sheets>
     <sheet name="CURVES_BBG" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="821">
   <si>
     <t>EONIA</t>
   </si>
@@ -2501,6 +2501,27 @@
   </si>
   <si>
     <t>EUR FORWARD SWAP 6M6M</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Orac</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Get All Items</t>
+  </si>
+  <si>
+    <t>Curve Subscription</t>
   </si>
 </sst>
 </file>
@@ -2578,12 +2599,12 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.bb03cc8101f744ce8556f1a40077c661">
+    <main first="rtdsrv.351ec2bbe58d4adcb691e7fe90ff30b1">
       <tp t="s">
-        <v>Curve.0</v>
+        <v>Curve.2</v>
         <stp/>
         <stp>CURVE</stp>
-        <tr r="M1" s="4"/>
+        <tr r="O1" s="4"/>
       </tp>
     </main>
   </volType>
@@ -2911,7 +2932,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>44155.428914004631</v>
+        <v>44155.67281747685</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -17204,7 +17225,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>44155.428914004631</v>
+        <v>44155.67281747685</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -18197,59 +18218,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE96C547-3013-4F30-8BDD-E6574CB2FE83}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>282</v>
       </c>
       <c r="B1">
         <v>44154.616243750002</v>
       </c>
-      <c r="M1" t="str" cm="1">
-        <f t="array" ref="M1">_xll.OracCurveInputs()</f>
-        <v>Curve.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M2" t="str">
-        <f t="array" ref="M2:N68">_xll.OracCurveInputsData(M1)</f>
-        <v>1Y</v>
-      </c>
-      <c r="N2">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>820</v>
+      </c>
+      <c r="O1" t="str" cm="1">
+        <f t="array" ref="O1">_xll.OracCurveInputs()</f>
+        <v>Curve.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
-      <c r="M3" t="str">
+      <c r="K3" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="array" ref="N3:O69">_xll.OracCurveInputsData(O1)</f>
+        <v>1Y</v>
+      </c>
+      <c r="O3">
+        <v>0.70508036130361829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="N4" t="str">
         <v>3Y</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M4" t="str">
-        <v>2Y</v>
-      </c>
-      <c r="N4">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -18268,14 +18302,17 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="str">
-        <v>4Y</v>
-      </c>
-      <c r="N5">
+      <c r="K5" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="N5" t="str">
+        <v>2Y</v>
+      </c>
+      <c r="O5">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -18301,21 +18338,25 @@
         <v>756</v>
       </c>
       <c r="J6">
-        <f>MATCH(C6,M:M,0)</f>
-        <v>55</v>
+        <f>MATCH(C6,N:N,0)</f>
+        <v>56</v>
       </c>
       <c r="K6" cm="1">
-        <f t="array" ref="K6">INDEX(N:N,J6)</f>
+        <f t="array" ref="K6">INDEX(O:O,J6)</f>
         <v>-0.47499999999999998</v>
       </c>
-      <c r="M6" t="str">
-        <v>5Y</v>
-      </c>
-      <c r="N6">
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">_xll.OracCurveInputsDatum($O$1,C6)</f>
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="N6" t="str">
+        <v>4Y</v>
+      </c>
+      <c r="O6">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -18338,21 +18379,25 @@
         <v>757</v>
       </c>
       <c r="J7">
-        <f>MATCH(C7,M:M,0)</f>
-        <v>48</v>
+        <f>MATCH(C7,N:N,0)</f>
+        <v>49</v>
       </c>
       <c r="K7" cm="1">
-        <f t="array" ref="K7">INDEX(N:N,J7)</f>
+        <f t="array" ref="K7">INDEX(O:O,J7)</f>
         <v>-0.48099999999999998</v>
       </c>
-      <c r="M7" t="str">
-        <v>6Y</v>
-      </c>
-      <c r="N7">
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.OracCurveInputsDatum($O$1,C7)</f>
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="N7" t="str">
+        <v>5Y</v>
+      </c>
+      <c r="O7">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -18375,21 +18420,25 @@
         <v>758</v>
       </c>
       <c r="J8">
-        <f>MATCH(C8,M:M,0)</f>
-        <v>57</v>
+        <f>MATCH(C8,N:N,0)</f>
+        <v>58</v>
       </c>
       <c r="K8" cm="1">
-        <f t="array" ref="K8">INDEX(N:N,J8)</f>
+        <f t="array" ref="K8">INDEX(O:O,J8)</f>
         <v>-0.48399999999999999</v>
       </c>
-      <c r="M8" t="str">
-        <v>7Y</v>
-      </c>
-      <c r="N8">
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.OracCurveInputsDatum($O$1,C8)</f>
+        <v>-0.48399999999999999</v>
+      </c>
+      <c r="N8" t="str">
+        <v>6Y</v>
+      </c>
+      <c r="O8">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -18412,21 +18461,25 @@
         <v>759</v>
       </c>
       <c r="J9">
-        <f>MATCH(C9,M:M,0)</f>
-        <v>51</v>
+        <f>MATCH(C9,N:N,0)</f>
+        <v>52</v>
       </c>
       <c r="K9" cm="1">
-        <f t="array" ref="K9">INDEX(N:N,J9)</f>
+        <f t="array" ref="K9">INDEX(O:O,J9)</f>
         <v>-0.49199999999999999</v>
       </c>
-      <c r="M9" t="str">
-        <v>8Y</v>
-      </c>
-      <c r="N9">
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.OracCurveInputsDatum($O$1,C9)</f>
+        <v>-0.49199999999999999</v>
+      </c>
+      <c r="N9" t="str">
+        <v>7Y</v>
+      </c>
+      <c r="O9">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -18449,21 +18502,25 @@
         <v>760</v>
       </c>
       <c r="J10">
-        <f>MATCH(C10,M:M,0)</f>
-        <v>30</v>
+        <f>MATCH(C10,N:N,0)</f>
+        <v>31</v>
       </c>
       <c r="K10" cm="1">
-        <f t="array" ref="K10">INDEX(N:N,J10)</f>
+        <f t="array" ref="K10">INDEX(O:O,J10)</f>
         <v>-0.50700000000000001</v>
       </c>
-      <c r="M10" t="str">
-        <v>9Y</v>
-      </c>
-      <c r="N10">
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.OracCurveInputsDatum($O$1,C10)</f>
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="N10" t="str">
+        <v>8Y</v>
+      </c>
+      <c r="O10">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -18486,21 +18543,25 @@
         <v>761</v>
       </c>
       <c r="J11">
-        <f>MATCH(C11,M:M,0)</f>
-        <v>37</v>
+        <f>MATCH(C11,N:N,0)</f>
+        <v>38</v>
       </c>
       <c r="K11" cm="1">
-        <f t="array" ref="K11">INDEX(N:N,J11)</f>
+        <f t="array" ref="K11">INDEX(O:O,J11)</f>
         <v>-0.52600000000000002</v>
       </c>
-      <c r="M11" t="str">
-        <v>10Y</v>
-      </c>
-      <c r="N11">
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.OracCurveInputsDatum($O$1,C11)</f>
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="N11" t="str">
+        <v>9Y</v>
+      </c>
+      <c r="O11">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -18523,21 +18584,25 @@
         <v>762</v>
       </c>
       <c r="J12">
-        <f>MATCH(C12,M:M,0)</f>
-        <v>34</v>
+        <f>MATCH(C12,N:N,0)</f>
+        <v>35</v>
       </c>
       <c r="K12" cm="1">
-        <f t="array" ref="K12">INDEX(N:N,J12)</f>
+        <f t="array" ref="K12">INDEX(O:O,J12)</f>
         <v>-0.52800000000000002</v>
       </c>
-      <c r="M12" t="str">
-        <v>11Y</v>
-      </c>
-      <c r="N12">
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.OracCurveInputsDatum($O$1,C12)</f>
+        <v>-0.52800000000000002</v>
+      </c>
+      <c r="N12" t="str">
+        <v>10Y</v>
+      </c>
+      <c r="O12">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -18560,21 +18625,25 @@
         <v>763</v>
       </c>
       <c r="J13">
-        <f>MATCH(C13,M:M,0)</f>
-        <v>46</v>
+        <f>MATCH(C13,N:N,0)</f>
+        <v>47</v>
       </c>
       <c r="K13" cm="1">
-        <f t="array" ref="K13">INDEX(N:N,J13)</f>
+        <f t="array" ref="K13">INDEX(O:O,J13)</f>
         <v>-0.51500000000000001</v>
       </c>
-      <c r="M13" t="str">
-        <v>12Y</v>
-      </c>
-      <c r="N13">
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.OracCurveInputsDatum($O$1,C13)</f>
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="N13" t="str">
+        <v>11Y</v>
+      </c>
+      <c r="O13">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -18597,21 +18666,25 @@
         <v>764</v>
       </c>
       <c r="J14">
-        <f>MATCH(C14,M:M,0)</f>
-        <v>49</v>
+        <f>MATCH(C14,N:N,0)</f>
+        <v>50</v>
       </c>
       <c r="K14" cm="1">
-        <f t="array" ref="K14">INDEX(N:N,J14)</f>
+        <f t="array" ref="K14">INDEX(O:O,J14)</f>
         <v>-0.49299999999999999</v>
       </c>
-      <c r="M14" t="str">
-        <v>13Y</v>
-      </c>
-      <c r="N14">
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.OracCurveInputsDatum($O$1,C14)</f>
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="N14" t="str">
+        <v>12Y</v>
+      </c>
+      <c r="O14">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -18634,21 +18707,25 @@
         <v>765</v>
       </c>
       <c r="J15">
-        <f>MATCH(C15,M:M,0)</f>
-        <v>26</v>
+        <f>MATCH(C15,N:N,0)</f>
+        <v>27</v>
       </c>
       <c r="K15" cm="1">
-        <f t="array" ref="K15">INDEX(N:N,J15)</f>
+        <f t="array" ref="K15">INDEX(O:O,J15)</f>
         <v>-0.42299999999999999</v>
       </c>
-      <c r="M15" t="str">
-        <v>14Y</v>
-      </c>
-      <c r="N15">
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.OracCurveInputsDatum($O$1,C15)</f>
+        <v>-0.42299999999999999</v>
+      </c>
+      <c r="N15" t="str">
+        <v>13Y</v>
+      </c>
+      <c r="O15">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -18671,21 +18748,25 @@
         <v>766</v>
       </c>
       <c r="J16">
-        <f>MATCH(C16,M:M,0)</f>
-        <v>54</v>
+        <f>MATCH(C16,N:N,0)</f>
+        <v>55</v>
       </c>
       <c r="K16" cm="1">
-        <f t="array" ref="K16">INDEX(N:N,J16)</f>
+        <f t="array" ref="K16">INDEX(O:O,J16)</f>
         <v>-0.28899999999999998</v>
       </c>
-      <c r="M16" t="str">
-        <v>15Y</v>
-      </c>
-      <c r="N16">
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.OracCurveInputsDatum($O$1,C16)</f>
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="N16" t="str">
+        <v>14Y</v>
+      </c>
+      <c r="O16">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -18708,21 +18789,25 @@
         <v>767</v>
       </c>
       <c r="J17">
-        <f>MATCH(C17,M:M,0)</f>
-        <v>28</v>
+        <f>MATCH(C17,N:N,0)</f>
+        <v>29</v>
       </c>
       <c r="K17" cm="1">
-        <f t="array" ref="K17">INDEX(N:N,J17)</f>
+        <f t="array" ref="K17">INDEX(O:O,J17)</f>
         <v>-9.1999999999999998E-2</v>
       </c>
-      <c r="M17" t="str">
-        <v>16Y</v>
-      </c>
-      <c r="N17">
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.OracCurveInputsDatum($O$1,C17)</f>
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="N17" t="str">
+        <v>15Y</v>
+      </c>
+      <c r="O17">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -18745,21 +18830,25 @@
         <v>768</v>
       </c>
       <c r="J18">
-        <f>MATCH(C18,M:M,0)</f>
-        <v>33</v>
+        <f>MATCH(C18,N:N,0)</f>
+        <v>34</v>
       </c>
       <c r="K18" cm="1">
-        <f t="array" ref="K18">INDEX(N:N,J18)</f>
+        <f t="array" ref="K18">INDEX(O:O,J18)</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M18" t="str">
-        <v>17Y</v>
-      </c>
-      <c r="N18">
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.OracCurveInputsDatum($O$1,C18)</f>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N18" t="str">
+        <v>16Y</v>
+      </c>
+      <c r="O18">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -18782,32 +18871,36 @@
         <v>769</v>
       </c>
       <c r="J19">
-        <f>MATCH(C19,M:M,0)</f>
-        <v>27</v>
+        <f>MATCH(C19,N:N,0)</f>
+        <v>28</v>
       </c>
       <c r="K19" cm="1">
-        <f t="array" ref="K19">INDEX(N:N,J19)</f>
+        <f t="array" ref="K19">INDEX(O:O,J19)</f>
         <v>-1.9E-2</v>
       </c>
-      <c r="M19" t="str">
-        <v>18Y</v>
-      </c>
-      <c r="N19">
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.OracCurveInputsDatum($O$1,C19)</f>
+        <v>-1.9E-2</v>
+      </c>
+      <c r="N19" t="str">
+        <v>17Y</v>
+      </c>
+      <c r="O19">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>770</v>
       </c>
-      <c r="M20" t="str">
-        <v>19Y</v>
-      </c>
-      <c r="N20">
+      <c r="N20" t="str">
+        <v>18Y</v>
+      </c>
+      <c r="O20">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -18830,21 +18923,25 @@
         <v>771</v>
       </c>
       <c r="J21">
-        <f>MATCH(C21,M:M,0)</f>
-        <v>32</v>
+        <f>MATCH(C21,N:N,0)</f>
+        <v>33</v>
       </c>
       <c r="K21" cm="1">
-        <f t="array" ref="K21">INDEX(N:N,J21)</f>
+        <f t="array" ref="K21">INDEX(O:O,J21)</f>
         <v>-0.52700000000000002</v>
       </c>
-      <c r="M21" t="str">
-        <v>20Y</v>
-      </c>
-      <c r="N21">
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.OracCurveInputsDatum($O$1,C21)</f>
+        <v>-0.52700000000000002</v>
+      </c>
+      <c r="N21" t="str">
+        <v>19Y</v>
+      </c>
+      <c r="O21">
         <v>0.70508036130361829</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -18867,21 +18964,25 @@
         <v>772</v>
       </c>
       <c r="J22">
-        <f>MATCH(C22,M:M,0)</f>
-        <v>42</v>
+        <f>MATCH(C22,N:N,0)</f>
+        <v>43</v>
       </c>
       <c r="K22" cm="1">
-        <f t="array" ref="K22">INDEX(N:N,J22)</f>
+        <f t="array" ref="K22">INDEX(O:O,J22)</f>
         <v>-0.52969999999999995</v>
       </c>
-      <c r="M22" t="str">
-        <v>EUSA5</v>
-      </c>
-      <c r="N22">
-        <v>-0.46100000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.OracCurveInputsDatum($O$1,C22)</f>
+        <v>-0.52969999999999995</v>
+      </c>
+      <c r="N22" t="str">
+        <v>20Y</v>
+      </c>
+      <c r="O22">
+        <v>0.70508036130361829</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -18904,21 +19005,25 @@
         <v>773</v>
       </c>
       <c r="J23">
-        <f>MATCH(C23,M:M,0)</f>
-        <v>53</v>
+        <f>MATCH(C23,N:N,0)</f>
+        <v>54</v>
       </c>
       <c r="K23" cm="1">
-        <f t="array" ref="K23">INDEX(N:N,J23)</f>
+        <f t="array" ref="K23">INDEX(O:O,J23)</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="M23" t="str">
-        <v>EUSA7</v>
-      </c>
-      <c r="N23">
-        <v>-0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.OracCurveInputsDatum($O$1,C23)</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N23" t="str">
+        <v>EUSA5</v>
+      </c>
+      <c r="O23">
+        <v>-0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -18941,21 +19046,25 @@
         <v>774</v>
       </c>
       <c r="J24">
-        <f>MATCH(C24,M:M,0)</f>
-        <v>36</v>
+        <f>MATCH(C24,N:N,0)</f>
+        <v>37</v>
       </c>
       <c r="K24" cm="1">
-        <f t="array" ref="K24">INDEX(N:N,J24)</f>
+        <f t="array" ref="K24">INDEX(O:O,J24)</f>
         <v>2.8</v>
       </c>
-      <c r="M24" t="str">
-        <v>EUR006M</v>
-      </c>
-      <c r="N24">
-        <v>-0.51300000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.OracCurveInputsDatum($O$1,C24)</f>
+        <v>2.8</v>
+      </c>
+      <c r="N24" t="str">
+        <v>EUSA7</v>
+      </c>
+      <c r="O24">
+        <v>-0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -18978,21 +19087,25 @@
         <v>775</v>
       </c>
       <c r="J25">
-        <f>MATCH(C25,M:M,0)</f>
-        <v>25</v>
+        <f>MATCH(C25,N:N,0)</f>
+        <v>26</v>
       </c>
       <c r="K25" cm="1">
-        <f t="array" ref="K25">INDEX(N:N,J25)</f>
+        <f t="array" ref="K25">INDEX(O:O,J25)</f>
         <v>3</v>
       </c>
-      <c r="M25" t="str">
-        <v>EUBSV3</v>
-      </c>
-      <c r="N25">
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.OracCurveInputsDatum($O$1,C25)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N25" t="str">
+        <v>EUR006M</v>
+      </c>
+      <c r="O25">
+        <v>-0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -19015,21 +19128,25 @@
         <v>776</v>
       </c>
       <c r="J26">
-        <f>MATCH(C26,M:M,0)</f>
-        <v>29</v>
+        <f>MATCH(C26,N:N,0)</f>
+        <v>30</v>
       </c>
       <c r="K26" cm="1">
-        <f t="array" ref="K26">INDEX(N:N,J26)</f>
+        <f t="array" ref="K26">INDEX(O:O,J26)</f>
         <v>3.15</v>
       </c>
-      <c r="M26" t="str">
-        <v>EUSWE7</v>
-      </c>
-      <c r="N26">
-        <v>-0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.OracCurveInputsDatum($O$1,C26)</f>
+        <v>3.15</v>
+      </c>
+      <c r="N26" t="str">
+        <v>EUBSV3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -19052,21 +19169,25 @@
         <v>777</v>
       </c>
       <c r="J27">
-        <f>MATCH(C27,M:M,0)</f>
-        <v>39</v>
+        <f>MATCH(C27,N:N,0)</f>
+        <v>40</v>
       </c>
       <c r="K27" cm="1">
-        <f t="array" ref="K27">INDEX(N:N,J27)</f>
+        <f t="array" ref="K27">INDEX(O:O,J27)</f>
         <v>3.15</v>
       </c>
-      <c r="M27" t="str">
-        <v>EUSWE30</v>
-      </c>
-      <c r="N27">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.OracCurveInputsDatum($O$1,C27)</f>
+        <v>3.15</v>
+      </c>
+      <c r="N27" t="str">
+        <v>EUSWE7</v>
+      </c>
+      <c r="O27">
+        <v>-0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -19089,21 +19210,25 @@
         <v>778</v>
       </c>
       <c r="J28">
-        <f>MATCH(C28,M:M,0)</f>
-        <v>50</v>
+        <f>MATCH(C28,N:N,0)</f>
+        <v>51</v>
       </c>
       <c r="K28" cm="1">
-        <f t="array" ref="K28">INDEX(N:N,J28)</f>
+        <f t="array" ref="K28">INDEX(O:O,J28)</f>
         <v>2.9</v>
       </c>
-      <c r="M28" t="str">
-        <v>EUSWE15</v>
-      </c>
-      <c r="N28">
-        <v>-9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.OracCurveInputsDatum($O$1,C28)</f>
+        <v>2.9</v>
+      </c>
+      <c r="N28" t="str">
+        <v>EUSWE30</v>
+      </c>
+      <c r="O28">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -19126,21 +19251,25 @@
         <v>779</v>
       </c>
       <c r="J29">
-        <f>MATCH(C29,M:M,0)</f>
-        <v>38</v>
+        <f>MATCH(C29,N:N,0)</f>
+        <v>39</v>
       </c>
       <c r="K29" cm="1">
-        <f t="array" ref="K29">INDEX(N:N,J29)</f>
+        <f t="array" ref="K29">INDEX(O:O,J29)</f>
         <v>2.25</v>
       </c>
-      <c r="M29" t="str">
-        <v>EUBSV4</v>
-      </c>
-      <c r="N29">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.OracCurveInputsDatum($O$1,C29)</f>
+        <v>2.25</v>
+      </c>
+      <c r="N29" t="str">
+        <v>EUSWE15</v>
+      </c>
+      <c r="O29">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -19163,21 +19292,25 @@
         <v>780</v>
       </c>
       <c r="J30">
-        <f>MATCH(C30,M:M,0)</f>
-        <v>35</v>
+        <f>MATCH(C30,N:N,0)</f>
+        <v>36</v>
       </c>
       <c r="K30" cm="1">
-        <f t="array" ref="K30">INDEX(N:N,J30)</f>
+        <f t="array" ref="K30">INDEX(O:O,J30)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="M30" t="str">
-        <v>EUSWE1</v>
-      </c>
-      <c r="N30">
-        <v>-0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.OracCurveInputsDatum($O$1,C30)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N30" t="str">
+        <v>EUBSV4</v>
+      </c>
+      <c r="O30">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -19200,21 +19333,25 @@
         <v>781</v>
       </c>
       <c r="J31">
-        <f>MATCH(C31,M:M,0)</f>
-        <v>31</v>
+        <f>MATCH(C31,N:N,0)</f>
+        <v>32</v>
       </c>
       <c r="K31" cm="1">
-        <f t="array" ref="K31">INDEX(N:N,J31)</f>
+        <f t="array" ref="K31">INDEX(O:O,J31)</f>
         <v>0.5</v>
       </c>
-      <c r="M31" t="str">
-        <v>EUBSV20</v>
-      </c>
-      <c r="N31">
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.OracCurveInputsDatum($O$1,C31)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N31" t="str">
+        <v>EUSWE1</v>
+      </c>
+      <c r="O31">
+        <v>-0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -19237,32 +19374,36 @@
         <v>782</v>
       </c>
       <c r="J32">
-        <f>MATCH(C32,M:M,0)</f>
-        <v>47</v>
+        <f>MATCH(C32,N:N,0)</f>
+        <v>48</v>
       </c>
       <c r="K32" cm="1">
-        <f t="array" ref="K32">INDEX(N:N,J32)</f>
+        <f t="array" ref="K32">INDEX(O:O,J32)</f>
         <v>-0.4</v>
       </c>
-      <c r="M32" t="str">
-        <v>EUR003M</v>
-      </c>
-      <c r="N32">
-        <v>-0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.OracCurveInputsDatum($O$1,C32)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="N32" t="str">
+        <v>EUBSV20</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>770</v>
       </c>
-      <c r="M33" t="str">
-        <v>EUSWE20</v>
-      </c>
-      <c r="N33">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <v>EUR003M</v>
+      </c>
+      <c r="O33">
+        <v>-0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -19285,21 +19426,25 @@
         <v>783</v>
       </c>
       <c r="J34">
-        <f>MATCH(C34,M:M,0)</f>
-        <v>24</v>
+        <f>MATCH(C34,N:N,0)</f>
+        <v>25</v>
       </c>
       <c r="K34" cm="1">
-        <f t="array" ref="K34">INDEX(N:N,J34)</f>
+        <f t="array" ref="K34">INDEX(O:O,J34)</f>
         <v>-0.51300000000000001</v>
       </c>
-      <c r="M34" t="str">
-        <v>EUSWE3</v>
-      </c>
-      <c r="N34">
-        <v>-0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.OracCurveInputsDatum($O$1,C34)</f>
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="N34" t="str">
+        <v>EUSWE20</v>
+      </c>
+      <c r="O34">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -19322,21 +19467,25 @@
         <v>784</v>
       </c>
       <c r="J35">
-        <f>MATCH(C35,M:M,0)</f>
-        <v>58</v>
+        <f>MATCH(C35,N:N,0)</f>
+        <v>59</v>
       </c>
       <c r="K35" cm="1">
-        <f t="array" ref="K35">INDEX(N:N,J35)</f>
+        <f t="array" ref="K35">INDEX(O:O,J35)</f>
         <v>-0.53159999999999996</v>
       </c>
-      <c r="M35" t="str">
-        <v>EUBSV15</v>
-      </c>
-      <c r="N35">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.OracCurveInputsDatum($O$1,C35)</f>
+        <v>-0.53159999999999996</v>
+      </c>
+      <c r="N35" t="str">
+        <v>EUSWE3</v>
+      </c>
+      <c r="O35">
+        <v>-0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -19359,21 +19508,25 @@
         <v>785</v>
       </c>
       <c r="J36">
-        <f>MATCH(C36,M:M,0)</f>
-        <v>41</v>
+        <f>MATCH(C36,N:N,0)</f>
+        <v>42</v>
       </c>
       <c r="K36" cm="1">
-        <f t="array" ref="K36">INDEX(N:N,J36)</f>
+        <f t="array" ref="K36">INDEX(O:O,J36)</f>
         <v>-0.52500000000000002</v>
       </c>
-      <c r="M36" t="str">
-        <v>EUBSV2</v>
-      </c>
-      <c r="N36">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.OracCurveInputsDatum($O$1,C36)</f>
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="N36" t="str">
+        <v>EUBSV15</v>
+      </c>
+      <c r="O36">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -19396,21 +19549,25 @@
         <v>786</v>
       </c>
       <c r="J37">
-        <f>MATCH(C37,M:M,0)</f>
-        <v>45</v>
+        <f>MATCH(C37,N:N,0)</f>
+        <v>46</v>
       </c>
       <c r="K37" cm="1">
-        <f t="array" ref="K37">INDEX(N:N,J37)</f>
+        <f t="array" ref="K37">INDEX(O:O,J37)</f>
         <v>-0.51500000000000001</v>
       </c>
-      <c r="M37" t="str">
-        <v>EUSWE2</v>
-      </c>
-      <c r="N37">
-        <v>-0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.OracCurveInputsDatum($O$1,C37)</f>
+        <v>-0.51500000000000001</v>
+      </c>
+      <c r="N37" t="str">
+        <v>EUBSV2</v>
+      </c>
+      <c r="O37">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -19433,21 +19590,25 @@
         <v>787</v>
       </c>
       <c r="J38">
-        <f>MATCH(C38,M:M,0)</f>
-        <v>43</v>
+        <f>MATCH(C38,N:N,0)</f>
+        <v>44</v>
       </c>
       <c r="K38" cm="1">
-        <f t="array" ref="K38">INDEX(N:N,J38)</f>
+        <f t="array" ref="K38">INDEX(O:O,J38)</f>
         <v>-0.49199999999999999</v>
       </c>
-      <c r="M38" t="str">
-        <v>EUBSV10</v>
-      </c>
-      <c r="N38">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.OracCurveInputsDatum($O$1,C38)</f>
+        <v>-0.49199999999999999</v>
+      </c>
+      <c r="N38" t="str">
+        <v>EUSWE2</v>
+      </c>
+      <c r="O38">
+        <v>-0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -19470,21 +19631,25 @@
         <v>788</v>
       </c>
       <c r="J39">
-        <f>MATCH(C39,M:M,0)</f>
-        <v>22</v>
+        <f>MATCH(C39,N:N,0)</f>
+        <v>23</v>
       </c>
       <c r="K39" cm="1">
-        <f t="array" ref="K39">INDEX(N:N,J39)</f>
+        <f t="array" ref="K39">INDEX(O:O,J39)</f>
         <v>-0.46100000000000002</v>
       </c>
-      <c r="M39" t="str">
-        <v>EUBSV5</v>
-      </c>
-      <c r="N39">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.OracCurveInputsDatum($O$1,C39)</f>
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="N39" t="str">
+        <v>EUBSV10</v>
+      </c>
+      <c r="O39">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -19507,21 +19672,25 @@
         <v>789</v>
       </c>
       <c r="J40">
-        <f>MATCH(C40,M:M,0)</f>
-        <v>23</v>
+        <f>MATCH(C40,N:N,0)</f>
+        <v>24</v>
       </c>
       <c r="K40" cm="1">
-        <f t="array" ref="K40">INDEX(N:N,J40)</f>
+        <f t="array" ref="K40">INDEX(O:O,J40)</f>
         <v>-0.38200000000000001</v>
       </c>
-      <c r="M40" t="str">
-        <v>EUSA15</v>
-      </c>
-      <c r="N40">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.OracCurveInputsDatum($O$1,C40)</f>
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="N40" t="str">
+        <v>EUBSV5</v>
+      </c>
+      <c r="O40">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -19544,21 +19713,25 @@
         <v>790</v>
       </c>
       <c r="J41">
-        <f>MATCH(C41,M:M,0)</f>
-        <v>56</v>
+        <f>MATCH(C41,N:N,0)</f>
+        <v>57</v>
       </c>
       <c r="K41" cm="1">
-        <f t="array" ref="K41">INDEX(N:N,J41)</f>
+        <f t="array" ref="K41">INDEX(O:O,J41)</f>
         <v>-0.24299999999999999</v>
       </c>
-      <c r="M41" t="str">
-        <v>EUSA2</v>
-      </c>
-      <c r="N41">
-        <v>-0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.OracCurveInputsDatum($O$1,C41)</f>
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="N41" t="str">
+        <v>EUSA15</v>
+      </c>
+      <c r="O41">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -19581,21 +19754,25 @@
         <v>791</v>
       </c>
       <c r="J42">
-        <f>MATCH(C42,M:M,0)</f>
-        <v>40</v>
+        <f>MATCH(C42,N:N,0)</f>
+        <v>41</v>
       </c>
       <c r="K42" cm="1">
-        <f t="array" ref="K42">INDEX(N:N,J42)</f>
+        <f t="array" ref="K42">INDEX(O:O,J42)</f>
         <v>-0.05</v>
       </c>
-      <c r="M42" t="str">
-        <v>EUSAC0C</v>
-      </c>
-      <c r="N42">
-        <v>-0.52969999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.OracCurveInputsDatum($O$1,C42)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="N42" t="str">
+        <v>EUSA2</v>
+      </c>
+      <c r="O42">
+        <v>-0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>11</v>
       </c>
@@ -19618,21 +19795,25 @@
         <v>792</v>
       </c>
       <c r="J43">
-        <f>MATCH(C43,M:M,0)</f>
-        <v>44</v>
+        <f>MATCH(C43,N:N,0)</f>
+        <v>45</v>
       </c>
       <c r="K43" cm="1">
-        <f t="array" ref="K43">INDEX(N:N,J43)</f>
+        <f t="array" ref="K43">INDEX(O:O,J43)</f>
         <v>3.1E-2</v>
       </c>
-      <c r="M43" t="str">
-        <v>EUSA4</v>
-      </c>
-      <c r="N43">
-        <v>-0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.OracCurveInputsDatum($O$1,C43)</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="N43" t="str">
+        <v>EUSAC0C</v>
+      </c>
+      <c r="O43">
+        <v>-0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -19655,213 +19836,226 @@
         <v>793</v>
       </c>
       <c r="J44">
-        <f>MATCH(C44,M:M,0)</f>
-        <v>52</v>
+        <f>MATCH(C44,N:N,0)</f>
+        <v>53</v>
       </c>
       <c r="K44" cm="1">
-        <f t="array" ref="K44">INDEX(N:N,J44)</f>
+        <f t="array" ref="K44">INDEX(O:O,J44)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M44" t="str">
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.OracCurveInputsDatum($O$1,C44)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N44" t="str">
+        <v>EUSA4</v>
+      </c>
+      <c r="O44">
+        <v>-0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N45" t="str">
         <v>EUSA20</v>
       </c>
-      <c r="N44">
+      <c r="O45">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M45" t="str">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N46" t="str">
         <v>EUSA3</v>
       </c>
-      <c r="N45">
+      <c r="O46">
         <v>-0.51500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M46" t="str">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N47" t="str">
         <v>EUSWE4</v>
       </c>
-      <c r="N46">
+      <c r="O47">
         <v>-0.51500000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M47" t="str">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N48" t="str">
         <v>EUBSV30</v>
       </c>
-      <c r="N47">
+      <c r="O48">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M48" t="str">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N49" t="str">
         <v>EUSWEB</v>
       </c>
-      <c r="N48">
+      <c r="O49">
         <v>-0.48099999999999998</v>
       </c>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M49" t="str">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N50" t="str">
         <v>EUSWE5</v>
       </c>
-      <c r="N49">
+      <c r="O50">
         <v>-0.49299999999999999</v>
       </c>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M50" t="str">
+    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N51" t="str">
         <v>EUBSV7</v>
       </c>
-      <c r="N50">
+      <c r="O51">
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M51" t="str">
+    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N52" t="str">
         <v>EUSWEF</v>
       </c>
-      <c r="N51">
+      <c r="O52">
         <v>-0.49199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M52" t="str">
+    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N53" t="str">
         <v>EUSA30</v>
       </c>
-      <c r="N52">
+      <c r="O53">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M53" t="str">
+    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N54" t="str">
         <v>EUBSV1</v>
       </c>
-      <c r="N53">
+      <c r="O54">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M54" t="str">
+    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N55" t="str">
         <v>EUSWE10</v>
       </c>
-      <c r="N54">
+      <c r="O55">
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M55" t="str">
+    <row r="56" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N56" t="str">
         <v>EUSWEA</v>
       </c>
-      <c r="N55">
+      <c r="O56">
         <v>-0.47499999999999998</v>
       </c>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M56" t="str">
+    <row r="57" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N57" t="str">
         <v>EUSA10</v>
       </c>
-      <c r="N56">
+      <c r="O57">
         <v>-0.24299999999999999</v>
       </c>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M57" t="str">
+    <row r="58" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N58" t="str">
         <v>EUSWEC</v>
       </c>
-      <c r="N57">
+      <c r="O58">
         <v>-0.48399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M58" t="str">
+    <row r="59" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N59" t="str">
         <v>EUSAF0F</v>
       </c>
-      <c r="N58">
+      <c r="O59">
         <v>-0.53159999999999996</v>
       </c>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N59" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M60" t="e">
-        <v>#N/A</v>
-      </c>
+    <row r="60" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N60" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M61" t="e">
+      <c r="O60" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="61" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N61" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M62" t="e">
+      <c r="O61" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="62" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N62" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M63" t="e">
+      <c r="O62" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="63" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N63" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M64" t="e">
+      <c r="O63" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="64" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N64" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M65" t="e">
+      <c r="O64" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N65" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M66" t="e">
+      <c r="O65" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N66" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M67" t="e">
+      <c r="O66" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N67" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M68" t="e">
+      <c r="O67" t="e">
         <v>#N/A</v>
       </c>
+    </row>
+    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N68" t="e">
         <v>#N/A</v>
       </c>
+      <c r="O68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O69" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web/public/curve.xlsx
+++ b/web/public/curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\bertybots\OracRTD\web\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D468A-6726-42D1-AEE0-4FF906FE8078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B3FF7-63FA-46A6-BA17-AAEF934F7C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2355" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{6CF590DF-C69D-4E19-9604-D4A300C2BE28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{6CF590DF-C69D-4E19-9604-D4A300C2BE28}"/>
   </bookViews>
   <sheets>
     <sheet name="CURVES_BBG" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="874">
   <si>
     <t>EONIA</t>
   </si>
@@ -2503,15 +2503,6 @@
     <t>EUR FORWARD SWAP 6M6M</t>
   </si>
   <si>
-    <t>Match</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>Orac</t>
   </si>
   <si>
@@ -2522,6 +2513,174 @@
   </si>
   <si>
     <t>Curve Subscription</t>
+  </si>
+  <si>
+    <t>EUR-OIS-1M</t>
+  </si>
+  <si>
+    <t>MarketValue</t>
+  </si>
+  <si>
+    <t>EUR-FIXED-1Y-EONIA-OIS</t>
+  </si>
+  <si>
+    <t>EUR-OIS-2M</t>
+  </si>
+  <si>
+    <t>EUR-OIS-3M</t>
+  </si>
+  <si>
+    <t>EUR-OIS-6M</t>
+  </si>
+  <si>
+    <t>EUR-OIS-1Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-2Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-3Y</t>
+  </si>
+  <si>
+    <t>3Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-4Y</t>
+  </si>
+  <si>
+    <t>4Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-5Y</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-7Y</t>
+  </si>
+  <si>
+    <t>7Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-10Y</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-15Y</t>
+  </si>
+  <si>
+    <t>15Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-20Y</t>
+  </si>
+  <si>
+    <t>20Y</t>
+  </si>
+  <si>
+    <t>EUR-OIS-30Y</t>
+  </si>
+  <si>
+    <t>30Y</t>
+  </si>
+  <si>
+    <t>EUR-FIX-EURIBOR3M</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>EUR-EURIBOR-3M</t>
+  </si>
+  <si>
+    <t>EUR-FRA-3Mx6M</t>
+  </si>
+  <si>
+    <t>3Mx6M</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-1Y</t>
+  </si>
+  <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>EUR-FIXED-1Y-EURIBOR-3M-EURIBOR-6M</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-2Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-3Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-4Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-5Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-7Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-10Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-15Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-20Y</t>
+  </si>
+  <si>
+    <t>EUR-BS3M6M-30Y</t>
+  </si>
+  <si>
+    <t>EUR-FIX-EURIBOR6M</t>
+  </si>
+  <si>
+    <t>EUR-EURIBOR-6M</t>
+  </si>
+  <si>
+    <t>EUR-FRA-6Mx12M</t>
+  </si>
+  <si>
+    <t>6Mx12M</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-2Y</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>EUR-FIXED-1Y-EURIBOR-6M</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-3Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-4Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-5Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-7Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-10Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-15Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-20Y</t>
+  </si>
+  <si>
+    <t>EUR-IRS6M-30Y</t>
   </si>
 </sst>
 </file>
@@ -2599,12 +2758,12 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.351ec2bbe58d4adcb691e7fe90ff30b1">
+    <main first="rtdsrv.842929840c9540b198662eeee3410f79">
       <tp t="s">
-        <v>Curve.2</v>
+        <v>Curve.126590</v>
         <stp/>
         <stp>CURVE</stp>
-        <tr r="O1" s="4"/>
+        <tr r="M1" s="4"/>
       </tp>
     </main>
   </volType>
@@ -2932,7 +3091,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>44155.67281747685</v>
+        <v>44157.507389930557</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -17225,7 +17384,7 @@
       </c>
       <c r="B1" s="2">
         <f ca="1">NOW()</f>
-        <v>44155.67281747685</v>
+        <v>44157.507389930557</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -18218,72 +18377,69 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE96C547-3013-4F30-8BDD-E6574CB2FE83}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G6" sqref="G6:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="111.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>282</v>
       </c>
       <c r="B1">
         <v>44154.616243750002</v>
       </c>
-      <c r="N1" t="s">
-        <v>820</v>
-      </c>
-      <c r="O1" t="str" cm="1">
-        <f t="array" ref="O1">_xll.OracCurveInputs()</f>
-        <v>Curve.2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N2" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>817</v>
+      </c>
+      <c r="M1" t="str" cm="1">
+        <f t="array" ref="M1">_xll.OracCurve()</f>
+        <v>Curve.126590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="N3" t="str">
-        <f t="array" ref="N3:O69">_xll.OracCurveInputsData(O1)</f>
-        <v>1Y</v>
-      </c>
-      <c r="O3">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K4" s="3" t="s">
+      <c r="L3" t="str">
+        <f t="array" ref="L3:M69">_xll.OracCurveAllValues()</f>
+        <v>TEST4</v>
+      </c>
+      <c r="M3">
+        <v>0.53332413700684456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="N4" t="str">
-        <v>3Y</v>
-      </c>
-      <c r="O4">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <v>TEST3</v>
+      </c>
+      <c r="M4">
+        <v>0.18963153450336945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -18302,17 +18458,14 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="N5" t="str">
-        <v>2Y</v>
-      </c>
-      <c r="O5">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <v>TEST1</v>
+      </c>
+      <c r="M5">
+        <v>0.55934927628164288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -18337,26 +18490,33 @@
       <c r="I6" t="s">
         <v>756</v>
       </c>
-      <c r="J6">
-        <f>MATCH(C6,N:N,0)</f>
-        <v>56</v>
-      </c>
-      <c r="K6" cm="1">
-        <f t="array" ref="K6">INDEX(O:O,J6)</f>
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="L6" cm="1">
-        <f t="array" ref="L6">_xll.OracCurveInputsDatum($O$1,C6)</f>
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="N6" t="str">
-        <v>4Y</v>
-      </c>
-      <c r="O6">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">_xll.OracCurvePoint($M$1,C6,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="str">
+        <v>TEST2</v>
+      </c>
+      <c r="M6">
+        <v>0.9744133429791898</v>
+      </c>
+      <c r="O6" t="s">
+        <v>818</v>
+      </c>
+      <c r="P6" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>820</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -18378,26 +18538,33 @@
       <c r="I7" t="s">
         <v>757</v>
       </c>
-      <c r="J7">
-        <f>MATCH(C7,N:N,0)</f>
-        <v>49</v>
-      </c>
-      <c r="K7" cm="1">
-        <f t="array" ref="K7">INDEX(O:O,J7)</f>
-        <v>-0.48099999999999998</v>
-      </c>
-      <c r="L7" cm="1">
-        <f t="array" ref="L7">_xll.OracCurveInputsDatum($O$1,C7)</f>
-        <v>-0.48099999999999998</v>
-      </c>
-      <c r="N7" t="str">
-        <v>5Y</v>
-      </c>
-      <c r="O7">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" t="e" cm="1">
+        <f t="array" ref="J7">_xll.OracCurvePoint($M$1,C7,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="str">
+        <v>TEST14</v>
+      </c>
+      <c r="M7">
+        <v>0.83434497456080037</v>
+      </c>
+      <c r="O7" t="s">
+        <v>821</v>
+      </c>
+      <c r="P7" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>820</v>
+      </c>
+      <c r="S7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -18419,26 +18586,33 @@
       <c r="I8" t="s">
         <v>758</v>
       </c>
-      <c r="J8">
-        <f>MATCH(C8,N:N,0)</f>
-        <v>58</v>
-      </c>
-      <c r="K8" cm="1">
-        <f t="array" ref="K8">INDEX(O:O,J8)</f>
-        <v>-0.48399999999999999</v>
-      </c>
-      <c r="L8" cm="1">
-        <f t="array" ref="L8">_xll.OracCurveInputsDatum($O$1,C8)</f>
-        <v>-0.48399999999999999</v>
-      </c>
-      <c r="N8" t="str">
-        <v>6Y</v>
-      </c>
-      <c r="O8">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" t="e" cm="1">
+        <f t="array" ref="J8">_xll.OracCurvePoint($M$1,C8,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="str">
+        <v>TEST13</v>
+      </c>
+      <c r="M8">
+        <v>0.42863669436992669</v>
+      </c>
+      <c r="O8" t="s">
+        <v>822</v>
+      </c>
+      <c r="P8" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>820</v>
+      </c>
+      <c r="S8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -18460,26 +18634,33 @@
       <c r="I9" t="s">
         <v>759</v>
       </c>
-      <c r="J9">
-        <f>MATCH(C9,N:N,0)</f>
-        <v>52</v>
-      </c>
-      <c r="K9" cm="1">
-        <f t="array" ref="K9">INDEX(O:O,J9)</f>
-        <v>-0.49199999999999999</v>
-      </c>
-      <c r="L9" cm="1">
-        <f t="array" ref="L9">_xll.OracCurveInputsDatum($O$1,C9)</f>
-        <v>-0.49199999999999999</v>
-      </c>
-      <c r="N9" t="str">
-        <v>7Y</v>
-      </c>
-      <c r="O9">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="e" cm="1">
+        <f t="array" ref="J9">_xll.OracCurvePoint($M$1,C9,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="str">
+        <v>TEST15</v>
+      </c>
+      <c r="M9">
+        <v>0.90098851753646791</v>
+      </c>
+      <c r="O9" t="s">
+        <v>823</v>
+      </c>
+      <c r="P9" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>820</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -18501,26 +18682,33 @@
       <c r="I10" t="s">
         <v>760</v>
       </c>
-      <c r="J10">
-        <f>MATCH(C10,N:N,0)</f>
-        <v>31</v>
-      </c>
-      <c r="K10" cm="1">
-        <f t="array" ref="K10">INDEX(O:O,J10)</f>
-        <v>-0.50700000000000001</v>
-      </c>
-      <c r="L10" cm="1">
-        <f t="array" ref="L10">_xll.OracCurveInputsDatum($O$1,C10)</f>
-        <v>-0.50700000000000001</v>
-      </c>
-      <c r="N10" t="str">
-        <v>8Y</v>
-      </c>
-      <c r="O10">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" t="e" cm="1">
+        <f t="array" ref="J10">_xll.OracCurvePoint($M$1,C10,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="str">
+        <v>TEST5</v>
+      </c>
+      <c r="M10">
+        <v>4.0969820821531333E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>824</v>
+      </c>
+      <c r="P10" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>820</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -18542,26 +18730,33 @@
       <c r="I11" t="s">
         <v>761</v>
       </c>
-      <c r="J11">
-        <f>MATCH(C11,N:N,0)</f>
-        <v>38</v>
-      </c>
-      <c r="K11" cm="1">
-        <f t="array" ref="K11">INDEX(O:O,J11)</f>
-        <v>-0.52600000000000002</v>
-      </c>
-      <c r="L11" cm="1">
-        <f t="array" ref="L11">_xll.OracCurveInputsDatum($O$1,C11)</f>
-        <v>-0.52600000000000002</v>
-      </c>
-      <c r="N11" t="str">
-        <v>9Y</v>
-      </c>
-      <c r="O11">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" t="e" cm="1">
+        <f t="array" ref="J11">_xll.OracCurvePoint($M$1,C11,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="str">
+        <v>TEST16</v>
+      </c>
+      <c r="M11">
+        <v>0.77658172238479894</v>
+      </c>
+      <c r="O11" t="s">
+        <v>825</v>
+      </c>
+      <c r="P11" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>820</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -18583,26 +18778,33 @@
       <c r="I12" t="s">
         <v>762</v>
       </c>
-      <c r="J12">
-        <f>MATCH(C12,N:N,0)</f>
-        <v>35</v>
-      </c>
-      <c r="K12" cm="1">
-        <f t="array" ref="K12">INDEX(O:O,J12)</f>
-        <v>-0.52800000000000002</v>
-      </c>
-      <c r="L12" cm="1">
-        <f t="array" ref="L12">_xll.OracCurveInputsDatum($O$1,C12)</f>
-        <v>-0.52800000000000002</v>
-      </c>
-      <c r="N12" t="str">
-        <v>10Y</v>
-      </c>
-      <c r="O12">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" t="e" cm="1">
+        <f t="array" ref="J12">_xll.OracCurvePoint($M$1,C12,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="str">
+        <v>TEST17</v>
+      </c>
+      <c r="M12">
+        <v>0.14736658547114734</v>
+      </c>
+      <c r="O12" t="s">
+        <v>826</v>
+      </c>
+      <c r="P12" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>820</v>
+      </c>
+      <c r="S12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -18624,26 +18826,33 @@
       <c r="I13" t="s">
         <v>763</v>
       </c>
-      <c r="J13">
-        <f>MATCH(C13,N:N,0)</f>
-        <v>47</v>
-      </c>
-      <c r="K13" cm="1">
-        <f t="array" ref="K13">INDEX(O:O,J13)</f>
-        <v>-0.51500000000000001</v>
-      </c>
-      <c r="L13" cm="1">
-        <f t="array" ref="L13">_xll.OracCurveInputsDatum($O$1,C13)</f>
-        <v>-0.51500000000000001</v>
-      </c>
-      <c r="N13" t="str">
-        <v>11Y</v>
-      </c>
-      <c r="O13">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" t="e" cm="1">
+        <f t="array" ref="J13">_xll.OracCurvePoint($M$1,C13,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="str">
+        <v>TEST6</v>
+      </c>
+      <c r="M13">
+        <v>5.9881075277817386E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>828</v>
+      </c>
+      <c r="P13" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>820</v>
+      </c>
+      <c r="S13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -18665,26 +18874,33 @@
       <c r="I14" t="s">
         <v>764</v>
       </c>
-      <c r="J14">
-        <f>MATCH(C14,N:N,0)</f>
-        <v>50</v>
-      </c>
-      <c r="K14" cm="1">
-        <f t="array" ref="K14">INDEX(O:O,J14)</f>
-        <v>-0.49299999999999999</v>
-      </c>
-      <c r="L14" cm="1">
-        <f t="array" ref="L14">_xll.OracCurveInputsDatum($O$1,C14)</f>
-        <v>-0.49299999999999999</v>
-      </c>
-      <c r="N14" t="str">
-        <v>12Y</v>
-      </c>
-      <c r="O14">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" t="e" cm="1">
+        <f t="array" ref="J14">_xll.OracCurvePoint($M$1,C14,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="str">
+        <v>TEST7</v>
+      </c>
+      <c r="M14">
+        <v>0.81183240818601787</v>
+      </c>
+      <c r="O14" t="s">
+        <v>830</v>
+      </c>
+      <c r="P14" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>820</v>
+      </c>
+      <c r="S14" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -18706,26 +18922,33 @@
       <c r="I15" t="s">
         <v>765</v>
       </c>
-      <c r="J15">
-        <f>MATCH(C15,N:N,0)</f>
-        <v>27</v>
-      </c>
-      <c r="K15" cm="1">
-        <f t="array" ref="K15">INDEX(O:O,J15)</f>
-        <v>-0.42299999999999999</v>
-      </c>
-      <c r="L15" cm="1">
-        <f t="array" ref="L15">_xll.OracCurveInputsDatum($O$1,C15)</f>
-        <v>-0.42299999999999999</v>
-      </c>
-      <c r="N15" t="str">
-        <v>13Y</v>
-      </c>
-      <c r="O15">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" t="e" cm="1">
+        <f t="array" ref="J15">_xll.OracCurvePoint($M$1,C15,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="str">
+        <v>TEST18</v>
+      </c>
+      <c r="M15">
+        <v>0.97406461257693966</v>
+      </c>
+      <c r="O15" t="s">
+        <v>832</v>
+      </c>
+      <c r="P15" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>820</v>
+      </c>
+      <c r="S15" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -18747,26 +18970,33 @@
       <c r="I16" t="s">
         <v>766</v>
       </c>
-      <c r="J16">
-        <f>MATCH(C16,N:N,0)</f>
-        <v>55</v>
-      </c>
-      <c r="K16" cm="1">
-        <f t="array" ref="K16">INDEX(O:O,J16)</f>
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="L16" cm="1">
-        <f t="array" ref="L16">_xll.OracCurveInputsDatum($O$1,C16)</f>
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="N16" t="str">
-        <v>14Y</v>
-      </c>
-      <c r="O16">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J16" t="e" cm="1">
+        <f t="array" ref="J16">_xll.OracCurvePoint($M$1,C16,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="str">
+        <v>TEST19</v>
+      </c>
+      <c r="M16">
+        <v>0.22292657568088026</v>
+      </c>
+      <c r="O16" t="s">
+        <v>834</v>
+      </c>
+      <c r="P16" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>820</v>
+      </c>
+      <c r="S16" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -18788,26 +19018,33 @@
       <c r="I17" t="s">
         <v>767</v>
       </c>
-      <c r="J17">
-        <f>MATCH(C17,N:N,0)</f>
-        <v>29</v>
-      </c>
-      <c r="K17" cm="1">
-        <f t="array" ref="K17">INDEX(O:O,J17)</f>
-        <v>-9.1999999999999998E-2</v>
-      </c>
-      <c r="L17" cm="1">
-        <f t="array" ref="L17">_xll.OracCurveInputsDatum($O$1,C17)</f>
-        <v>-9.1999999999999998E-2</v>
-      </c>
-      <c r="N17" t="str">
-        <v>15Y</v>
-      </c>
-      <c r="O17">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J17" t="e" cm="1">
+        <f t="array" ref="J17">_xll.OracCurvePoint($M$1,C17,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="str">
+        <v>TEST8</v>
+      </c>
+      <c r="M17">
+        <v>0.60957073592013766</v>
+      </c>
+      <c r="O17" t="s">
+        <v>836</v>
+      </c>
+      <c r="P17" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>820</v>
+      </c>
+      <c r="S17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -18829,26 +19066,33 @@
       <c r="I18" t="s">
         <v>768</v>
       </c>
-      <c r="J18">
-        <f>MATCH(C18,N:N,0)</f>
-        <v>34</v>
-      </c>
-      <c r="K18" cm="1">
-        <f t="array" ref="K18">INDEX(O:O,J18)</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="L18" cm="1">
-        <f t="array" ref="L18">_xll.OracCurveInputsDatum($O$1,C18)</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="N18" t="str">
-        <v>16Y</v>
-      </c>
-      <c r="O18">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J18" t="e" cm="1">
+        <f t="array" ref="J18">_xll.OracCurvePoint($M$1,C18,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="str">
+        <v>TEST20</v>
+      </c>
+      <c r="M18">
+        <v>8.3245566863884068E-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>838</v>
+      </c>
+      <c r="P18" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>820</v>
+      </c>
+      <c r="S18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -18870,37 +19114,44 @@
       <c r="I19" t="s">
         <v>769</v>
       </c>
-      <c r="J19">
-        <f>MATCH(C19,N:N,0)</f>
-        <v>28</v>
-      </c>
-      <c r="K19" cm="1">
-        <f t="array" ref="K19">INDEX(O:O,J19)</f>
-        <v>-1.9E-2</v>
-      </c>
-      <c r="L19" cm="1">
-        <f t="array" ref="L19">_xll.OracCurveInputsDatum($O$1,C19)</f>
-        <v>-1.9E-2</v>
-      </c>
-      <c r="N19" t="str">
-        <v>17Y</v>
-      </c>
-      <c r="O19">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J19" t="e" cm="1">
+        <f t="array" ref="J19">_xll.OracCurvePoint($M$1,C19,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="str">
+        <v>TEST9</v>
+      </c>
+      <c r="M19">
+        <v>0.26786835830881928</v>
+      </c>
+      <c r="O19" t="s">
+        <v>840</v>
+      </c>
+      <c r="P19" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>820</v>
+      </c>
+      <c r="S19" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>770</v>
       </c>
-      <c r="N20" t="str">
-        <v>18Y</v>
-      </c>
-      <c r="O20">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L20" t="str">
+        <v>TEST21</v>
+      </c>
+      <c r="M20">
+        <v>8.0469822270139435E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -18922,26 +19173,30 @@
       <c r="I21" t="s">
         <v>771</v>
       </c>
-      <c r="J21">
-        <f>MATCH(C21,N:N,0)</f>
-        <v>33</v>
-      </c>
-      <c r="K21" cm="1">
-        <f t="array" ref="K21">INDEX(O:O,J21)</f>
-        <v>-0.52700000000000002</v>
-      </c>
-      <c r="L21" cm="1">
-        <f t="array" ref="L21">_xll.OracCurveInputsDatum($O$1,C21)</f>
-        <v>-0.52700000000000002</v>
-      </c>
-      <c r="N21" t="str">
-        <v>19Y</v>
-      </c>
-      <c r="O21">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J21" t="e" cm="1">
+        <f t="array" ref="J21">_xll.OracCurvePoint($M$1,C21,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="str">
+        <v>TEST10</v>
+      </c>
+      <c r="M21">
+        <v>0.66614001027912817</v>
+      </c>
+      <c r="O21" t="s">
+        <v>842</v>
+      </c>
+      <c r="P21" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>843</v>
+      </c>
+      <c r="R21" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -18963,26 +19218,33 @@
       <c r="I22" t="s">
         <v>772</v>
       </c>
-      <c r="J22">
-        <f>MATCH(C22,N:N,0)</f>
-        <v>43</v>
-      </c>
-      <c r="K22" cm="1">
-        <f t="array" ref="K22">INDEX(O:O,J22)</f>
-        <v>-0.52969999999999995</v>
-      </c>
-      <c r="L22" cm="1">
-        <f t="array" ref="L22">_xll.OracCurveInputsDatum($O$1,C22)</f>
-        <v>-0.52969999999999995</v>
-      </c>
-      <c r="N22" t="str">
-        <v>20Y</v>
-      </c>
-      <c r="O22">
-        <v>0.70508036130361829</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J22" t="e" cm="1">
+        <f t="array" ref="J22">_xll.OracCurvePoint($M$1,C22,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="str">
+        <v>TEST11</v>
+      </c>
+      <c r="M22">
+        <v>0.37667783312580583</v>
+      </c>
+      <c r="O22" t="s">
+        <v>845</v>
+      </c>
+      <c r="P22" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>93</v>
+      </c>
+      <c r="R22" t="s">
+        <v>844</v>
+      </c>
+      <c r="S22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -19004,26 +19266,33 @@
       <c r="I23" t="s">
         <v>773</v>
       </c>
-      <c r="J23">
-        <f>MATCH(C23,N:N,0)</f>
-        <v>54</v>
-      </c>
-      <c r="K23" cm="1">
-        <f t="array" ref="K23">INDEX(O:O,J23)</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="L23" cm="1">
-        <f t="array" ref="L23">_xll.OracCurveInputsDatum($O$1,C23)</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="N23" t="str">
-        <v>EUSA5</v>
-      </c>
-      <c r="O23">
-        <v>-0.46100000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J23" t="e" cm="1">
+        <f t="array" ref="J23">_xll.OracCurvePoint($M$1,C23,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="str">
+        <v>TEST22</v>
+      </c>
+      <c r="M23">
+        <v>0.1262792558187078</v>
+      </c>
+      <c r="O23" t="s">
+        <v>847</v>
+      </c>
+      <c r="P23" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>848</v>
+      </c>
+      <c r="R23" t="s">
+        <v>849</v>
+      </c>
+      <c r="S23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -19045,26 +19314,33 @@
       <c r="I24" t="s">
         <v>774</v>
       </c>
-      <c r="J24">
-        <f>MATCH(C24,N:N,0)</f>
-        <v>37</v>
-      </c>
-      <c r="K24" cm="1">
-        <f t="array" ref="K24">INDEX(O:O,J24)</f>
-        <v>2.8</v>
-      </c>
-      <c r="L24" cm="1">
-        <f t="array" ref="L24">_xll.OracCurveInputsDatum($O$1,C24)</f>
-        <v>2.8</v>
-      </c>
-      <c r="N24" t="str">
-        <v>EUSA7</v>
-      </c>
-      <c r="O24">
-        <v>-0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J24" t="e" cm="1">
+        <f t="array" ref="J24">_xll.OracCurvePoint($M$1,C24,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="str">
+        <v>TEST12</v>
+      </c>
+      <c r="M24">
+        <v>0.92446889831785262</v>
+      </c>
+      <c r="O24" t="s">
+        <v>850</v>
+      </c>
+      <c r="P24" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>848</v>
+      </c>
+      <c r="R24" t="s">
+        <v>849</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>8</v>
       </c>
@@ -19086,26 +19362,33 @@
       <c r="I25" t="s">
         <v>775</v>
       </c>
-      <c r="J25">
-        <f>MATCH(C25,N:N,0)</f>
-        <v>26</v>
-      </c>
-      <c r="K25" cm="1">
-        <f t="array" ref="K25">INDEX(O:O,J25)</f>
-        <v>3</v>
-      </c>
-      <c r="L25" cm="1">
-        <f t="array" ref="L25">_xll.OracCurveInputsDatum($O$1,C25)</f>
-        <v>3</v>
-      </c>
-      <c r="N25" t="str">
-        <v>EUR006M</v>
-      </c>
-      <c r="O25">
-        <v>-0.51300000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J25" t="e" cm="1">
+        <f t="array" ref="J25">_xll.OracCurvePoint($M$1,C25,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="str">
+        <v>TEST23</v>
+      </c>
+      <c r="M25">
+        <v>2.3578854624377921E-2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>851</v>
+      </c>
+      <c r="P25" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>848</v>
+      </c>
+      <c r="R25" t="s">
+        <v>849</v>
+      </c>
+      <c r="S25" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -19127,26 +19410,33 @@
       <c r="I26" t="s">
         <v>776</v>
       </c>
-      <c r="J26">
-        <f>MATCH(C26,N:N,0)</f>
-        <v>30</v>
-      </c>
-      <c r="K26" cm="1">
-        <f t="array" ref="K26">INDEX(O:O,J26)</f>
-        <v>3.15</v>
-      </c>
-      <c r="L26" cm="1">
-        <f t="array" ref="L26">_xll.OracCurveInputsDatum($O$1,C26)</f>
-        <v>3.15</v>
-      </c>
-      <c r="N26" t="str">
-        <v>EUBSV3</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J26" t="e" cm="1">
+        <f t="array" ref="J26">_xll.OracCurvePoint($M$1,C26,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="str">
+        <v>TEST24</v>
+      </c>
+      <c r="M26">
+        <v>0.5141790756347886</v>
+      </c>
+      <c r="O26" t="s">
+        <v>852</v>
+      </c>
+      <c r="P26" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>848</v>
+      </c>
+      <c r="R26" t="s">
+        <v>849</v>
+      </c>
+      <c r="S26" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -19168,26 +19458,33 @@
       <c r="I27" t="s">
         <v>777</v>
       </c>
-      <c r="J27">
-        <f>MATCH(C27,N:N,0)</f>
-        <v>40</v>
-      </c>
-      <c r="K27" cm="1">
-        <f t="array" ref="K27">INDEX(O:O,J27)</f>
-        <v>3.15</v>
-      </c>
-      <c r="L27" cm="1">
-        <f t="array" ref="L27">_xll.OracCurveInputsDatum($O$1,C27)</f>
-        <v>3.15</v>
-      </c>
-      <c r="N27" t="str">
-        <v>EUSWE7</v>
-      </c>
-      <c r="O27">
-        <v>-0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J27" t="e" cm="1">
+        <f t="array" ref="J27">_xll.OracCurvePoint($M$1,C27,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="str">
+        <v>TEST25</v>
+      </c>
+      <c r="M27">
+        <v>0.10918242556134483</v>
+      </c>
+      <c r="O27" t="s">
+        <v>853</v>
+      </c>
+      <c r="P27" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>848</v>
+      </c>
+      <c r="R27" t="s">
+        <v>849</v>
+      </c>
+      <c r="S27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -19209,26 +19506,33 @@
       <c r="I28" t="s">
         <v>778</v>
       </c>
-      <c r="J28">
-        <f>MATCH(C28,N:N,0)</f>
-        <v>51</v>
-      </c>
-      <c r="K28" cm="1">
-        <f t="array" ref="K28">INDEX(O:O,J28)</f>
-        <v>2.9</v>
-      </c>
-      <c r="L28" cm="1">
-        <f t="array" ref="L28">_xll.OracCurveInputsDatum($O$1,C28)</f>
-        <v>2.9</v>
-      </c>
-      <c r="N28" t="str">
-        <v>EUSWE30</v>
-      </c>
-      <c r="O28">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J28" t="e" cm="1">
+        <f t="array" ref="J28">_xll.OracCurvePoint($M$1,C28,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="str">
+        <v>TEST26</v>
+      </c>
+      <c r="M28">
+        <v>0.93367912085155913</v>
+      </c>
+      <c r="O28" t="s">
+        <v>854</v>
+      </c>
+      <c r="P28" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>848</v>
+      </c>
+      <c r="R28" t="s">
+        <v>849</v>
+      </c>
+      <c r="S28" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -19250,26 +19554,33 @@
       <c r="I29" t="s">
         <v>779</v>
       </c>
-      <c r="J29">
-        <f>MATCH(C29,N:N,0)</f>
-        <v>39</v>
-      </c>
-      <c r="K29" cm="1">
-        <f t="array" ref="K29">INDEX(O:O,J29)</f>
-        <v>2.25</v>
-      </c>
-      <c r="L29" cm="1">
-        <f t="array" ref="L29">_xll.OracCurveInputsDatum($O$1,C29)</f>
-        <v>2.25</v>
-      </c>
-      <c r="N29" t="str">
-        <v>EUSWE15</v>
-      </c>
-      <c r="O29">
-        <v>-9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J29" t="e" cm="1">
+        <f t="array" ref="J29">_xll.OracCurvePoint($M$1,C29,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="str">
+        <v>TEST27</v>
+      </c>
+      <c r="M29">
+        <v>0.31923799409898646</v>
+      </c>
+      <c r="O29" t="s">
+        <v>855</v>
+      </c>
+      <c r="P29" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>848</v>
+      </c>
+      <c r="R29" t="s">
+        <v>849</v>
+      </c>
+      <c r="S29" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -19291,26 +19602,33 @@
       <c r="I30" t="s">
         <v>780</v>
       </c>
-      <c r="J30">
-        <f>MATCH(C30,N:N,0)</f>
-        <v>36</v>
-      </c>
-      <c r="K30" cm="1">
-        <f t="array" ref="K30">INDEX(O:O,J30)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L30" cm="1">
-        <f t="array" ref="L30">_xll.OracCurveInputsDatum($O$1,C30)</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N30" t="str">
-        <v>EUBSV4</v>
-      </c>
-      <c r="O30">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J30" t="e" cm="1">
+        <f t="array" ref="J30">_xll.OracCurvePoint($M$1,C30,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="str">
+        <v>TEST28</v>
+      </c>
+      <c r="M30">
+        <v>0.91512720712308127</v>
+      </c>
+      <c r="O30" t="s">
+        <v>856</v>
+      </c>
+      <c r="P30" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>848</v>
+      </c>
+      <c r="R30" t="s">
+        <v>849</v>
+      </c>
+      <c r="S30" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -19332,26 +19650,33 @@
       <c r="I31" t="s">
         <v>781</v>
       </c>
-      <c r="J31">
-        <f>MATCH(C31,N:N,0)</f>
-        <v>32</v>
-      </c>
-      <c r="K31" cm="1">
-        <f t="array" ref="K31">INDEX(O:O,J31)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L31" cm="1">
-        <f t="array" ref="L31">_xll.OracCurveInputsDatum($O$1,C31)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N31" t="str">
-        <v>EUSWE1</v>
-      </c>
-      <c r="O31">
-        <v>-0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J31" t="e" cm="1">
+        <f t="array" ref="J31">_xll.OracCurvePoint($M$1,C31,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="str">
+        <v>TEST29</v>
+      </c>
+      <c r="M31">
+        <v>0.48771555064926819</v>
+      </c>
+      <c r="O31" t="s">
+        <v>857</v>
+      </c>
+      <c r="P31" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>848</v>
+      </c>
+      <c r="R31" t="s">
+        <v>849</v>
+      </c>
+      <c r="S31" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -19373,37 +19698,44 @@
       <c r="I32" t="s">
         <v>782</v>
       </c>
-      <c r="J32">
-        <f>MATCH(C32,N:N,0)</f>
-        <v>48</v>
-      </c>
-      <c r="K32" cm="1">
-        <f t="array" ref="K32">INDEX(O:O,J32)</f>
-        <v>-0.4</v>
-      </c>
-      <c r="L32" cm="1">
-        <f t="array" ref="L32">_xll.OracCurveInputsDatum($O$1,C32)</f>
-        <v>-0.4</v>
-      </c>
-      <c r="N32" t="str">
-        <v>EUBSV20</v>
-      </c>
-      <c r="O32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J32" t="e" cm="1">
+        <f t="array" ref="J32">_xll.OracCurvePoint($M$1,C32,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="str">
+        <v>TEST30</v>
+      </c>
+      <c r="M32">
+        <v>0.34599003532944839</v>
+      </c>
+      <c r="O32" t="s">
+        <v>858</v>
+      </c>
+      <c r="P32" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>848</v>
+      </c>
+      <c r="R32" t="s">
+        <v>849</v>
+      </c>
+      <c r="S32" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
         <v>770</v>
       </c>
-      <c r="N33" t="str">
-        <v>EUR003M</v>
-      </c>
-      <c r="O33">
-        <v>-0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -19425,26 +19757,30 @@
       <c r="I34" t="s">
         <v>783</v>
       </c>
-      <c r="J34">
-        <f>MATCH(C34,N:N,0)</f>
-        <v>25</v>
-      </c>
-      <c r="K34" cm="1">
-        <f t="array" ref="K34">INDEX(O:O,J34)</f>
-        <v>-0.51300000000000001</v>
-      </c>
-      <c r="L34" cm="1">
-        <f t="array" ref="L34">_xll.OracCurveInputsDatum($O$1,C34)</f>
-        <v>-0.51300000000000001</v>
-      </c>
-      <c r="N34" t="str">
-        <v>EUSWE20</v>
-      </c>
-      <c r="O34">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J34" t="e" cm="1">
+        <f t="array" ref="J34">_xll.OracCurvePoint($M$1,C34,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O34" t="s">
+        <v>859</v>
+      </c>
+      <c r="P34" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>843</v>
+      </c>
+      <c r="R34" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -19466,26 +19802,33 @@
       <c r="I35" t="s">
         <v>784</v>
       </c>
-      <c r="J35">
-        <f>MATCH(C35,N:N,0)</f>
-        <v>59</v>
-      </c>
-      <c r="K35" cm="1">
-        <f t="array" ref="K35">INDEX(O:O,J35)</f>
-        <v>-0.53159999999999996</v>
-      </c>
-      <c r="L35" cm="1">
-        <f t="array" ref="L35">_xll.OracCurveInputsDatum($O$1,C35)</f>
-        <v>-0.53159999999999996</v>
-      </c>
-      <c r="N35" t="str">
-        <v>EUSWE3</v>
-      </c>
-      <c r="O35">
-        <v>-0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J35" t="e" cm="1">
+        <f t="array" ref="J35">_xll.OracCurvePoint($M$1,C35,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O35" t="s">
+        <v>861</v>
+      </c>
+      <c r="P35" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>93</v>
+      </c>
+      <c r="R35" t="s">
+        <v>860</v>
+      </c>
+      <c r="S35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -19507,26 +19850,33 @@
       <c r="I36" t="s">
         <v>785</v>
       </c>
-      <c r="J36">
-        <f>MATCH(C36,N:N,0)</f>
-        <v>42</v>
-      </c>
-      <c r="K36" cm="1">
-        <f t="array" ref="K36">INDEX(O:O,J36)</f>
-        <v>-0.52500000000000002</v>
-      </c>
-      <c r="L36" cm="1">
-        <f t="array" ref="L36">_xll.OracCurveInputsDatum($O$1,C36)</f>
-        <v>-0.52500000000000002</v>
-      </c>
-      <c r="N36" t="str">
-        <v>EUBSV15</v>
-      </c>
-      <c r="O36">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J36" t="e" cm="1">
+        <f t="array" ref="J36">_xll.OracCurvePoint($M$1,C36,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O36" t="s">
+        <v>863</v>
+      </c>
+      <c r="P36" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>864</v>
+      </c>
+      <c r="R36" t="s">
+        <v>865</v>
+      </c>
+      <c r="S36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -19548,26 +19898,33 @@
       <c r="I37" t="s">
         <v>786</v>
       </c>
-      <c r="J37">
-        <f>MATCH(C37,N:N,0)</f>
-        <v>46</v>
-      </c>
-      <c r="K37" cm="1">
-        <f t="array" ref="K37">INDEX(O:O,J37)</f>
-        <v>-0.51500000000000001</v>
-      </c>
-      <c r="L37" cm="1">
-        <f t="array" ref="L37">_xll.OracCurveInputsDatum($O$1,C37)</f>
-        <v>-0.51500000000000001</v>
-      </c>
-      <c r="N37" t="str">
-        <v>EUBSV2</v>
-      </c>
-      <c r="O37">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J37" t="e" cm="1">
+        <f t="array" ref="J37">_xll.OracCurvePoint($M$1,C37,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O37" t="s">
+        <v>866</v>
+      </c>
+      <c r="P37" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>864</v>
+      </c>
+      <c r="R37" t="s">
+        <v>865</v>
+      </c>
+      <c r="S37" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -19589,26 +19946,33 @@
       <c r="I38" t="s">
         <v>787</v>
       </c>
-      <c r="J38">
-        <f>MATCH(C38,N:N,0)</f>
-        <v>44</v>
-      </c>
-      <c r="K38" cm="1">
-        <f t="array" ref="K38">INDEX(O:O,J38)</f>
-        <v>-0.49199999999999999</v>
-      </c>
-      <c r="L38" cm="1">
-        <f t="array" ref="L38">_xll.OracCurveInputsDatum($O$1,C38)</f>
-        <v>-0.49199999999999999</v>
-      </c>
-      <c r="N38" t="str">
-        <v>EUSWE2</v>
-      </c>
-      <c r="O38">
-        <v>-0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J38" t="e" cm="1">
+        <f t="array" ref="J38">_xll.OracCurvePoint($M$1,C38,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O38" t="s">
+        <v>867</v>
+      </c>
+      <c r="P38" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>864</v>
+      </c>
+      <c r="R38" t="s">
+        <v>865</v>
+      </c>
+      <c r="S38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -19630,26 +19994,33 @@
       <c r="I39" t="s">
         <v>788</v>
       </c>
-      <c r="J39">
-        <f>MATCH(C39,N:N,0)</f>
-        <v>23</v>
-      </c>
-      <c r="K39" cm="1">
-        <f t="array" ref="K39">INDEX(O:O,J39)</f>
-        <v>-0.46100000000000002</v>
-      </c>
-      <c r="L39" cm="1">
-        <f t="array" ref="L39">_xll.OracCurveInputsDatum($O$1,C39)</f>
-        <v>-0.46100000000000002</v>
-      </c>
-      <c r="N39" t="str">
-        <v>EUBSV10</v>
-      </c>
-      <c r="O39">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J39" t="e" cm="1">
+        <f t="array" ref="J39">_xll.OracCurvePoint($M$1,C39,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="s">
+        <v>868</v>
+      </c>
+      <c r="P39" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>864</v>
+      </c>
+      <c r="R39" t="s">
+        <v>865</v>
+      </c>
+      <c r="S39" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -19671,26 +20042,33 @@
       <c r="I40" t="s">
         <v>789</v>
       </c>
-      <c r="J40">
-        <f>MATCH(C40,N:N,0)</f>
-        <v>24</v>
-      </c>
-      <c r="K40" cm="1">
-        <f t="array" ref="K40">INDEX(O:O,J40)</f>
-        <v>-0.38200000000000001</v>
-      </c>
-      <c r="L40" cm="1">
-        <f t="array" ref="L40">_xll.OracCurveInputsDatum($O$1,C40)</f>
-        <v>-0.38200000000000001</v>
-      </c>
-      <c r="N40" t="str">
-        <v>EUBSV5</v>
-      </c>
-      <c r="O40">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J40" t="e" cm="1">
+        <f t="array" ref="J40">_xll.OracCurvePoint($M$1,C40,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O40" t="s">
+        <v>869</v>
+      </c>
+      <c r="P40" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>864</v>
+      </c>
+      <c r="R40" t="s">
+        <v>865</v>
+      </c>
+      <c r="S40" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -19712,26 +20090,33 @@
       <c r="I41" t="s">
         <v>790</v>
       </c>
-      <c r="J41">
-        <f>MATCH(C41,N:N,0)</f>
-        <v>57</v>
-      </c>
-      <c r="K41" cm="1">
-        <f t="array" ref="K41">INDEX(O:O,J41)</f>
-        <v>-0.24299999999999999</v>
-      </c>
-      <c r="L41" cm="1">
-        <f t="array" ref="L41">_xll.OracCurveInputsDatum($O$1,C41)</f>
-        <v>-0.24299999999999999</v>
-      </c>
-      <c r="N41" t="str">
-        <v>EUSA15</v>
-      </c>
-      <c r="O41">
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J41" t="e" cm="1">
+        <f t="array" ref="J41">_xll.OracCurvePoint($M$1,C41,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="s">
+        <v>870</v>
+      </c>
+      <c r="P41" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>864</v>
+      </c>
+      <c r="R41" t="s">
+        <v>865</v>
+      </c>
+      <c r="S41" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -19753,26 +20138,33 @@
       <c r="I42" t="s">
         <v>791</v>
       </c>
-      <c r="J42">
-        <f>MATCH(C42,N:N,0)</f>
-        <v>41</v>
-      </c>
-      <c r="K42" cm="1">
-        <f t="array" ref="K42">INDEX(O:O,J42)</f>
-        <v>-0.05</v>
-      </c>
-      <c r="L42" cm="1">
-        <f t="array" ref="L42">_xll.OracCurveInputsDatum($O$1,C42)</f>
-        <v>-0.05</v>
-      </c>
-      <c r="N42" t="str">
-        <v>EUSA2</v>
-      </c>
-      <c r="O42">
-        <v>-0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J42" t="e" cm="1">
+        <f t="array" ref="J42">_xll.OracCurvePoint($M$1,C42,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O42" t="s">
+        <v>871</v>
+      </c>
+      <c r="P42" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>864</v>
+      </c>
+      <c r="R42" t="s">
+        <v>865</v>
+      </c>
+      <c r="S42" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>11</v>
       </c>
@@ -19794,26 +20186,33 @@
       <c r="I43" t="s">
         <v>792</v>
       </c>
-      <c r="J43">
-        <f>MATCH(C43,N:N,0)</f>
-        <v>45</v>
-      </c>
-      <c r="K43" cm="1">
-        <f t="array" ref="K43">INDEX(O:O,J43)</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="L43" cm="1">
-        <f t="array" ref="L43">_xll.OracCurveInputsDatum($O$1,C43)</f>
-        <v>3.1E-2</v>
-      </c>
-      <c r="N43" t="str">
-        <v>EUSAC0C</v>
-      </c>
-      <c r="O43">
-        <v>-0.52969999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J43" t="e" cm="1">
+        <f t="array" ref="J43">_xll.OracCurvePoint($M$1,C43,"value")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O43" t="s">
+        <v>872</v>
+      </c>
+      <c r="P43" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>864</v>
+      </c>
+      <c r="R43" t="s">
+        <v>865</v>
+      </c>
+      <c r="S43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -19835,222 +20234,229 @@
       <c r="I44" t="s">
         <v>793</v>
       </c>
-      <c r="J44">
-        <f>MATCH(C44,N:N,0)</f>
-        <v>53</v>
-      </c>
-      <c r="K44" cm="1">
-        <f t="array" ref="K44">INDEX(O:O,J44)</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L44" cm="1">
-        <f t="array" ref="L44">_xll.OracCurveInputsDatum($O$1,C44)</f>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="N44" t="str">
-        <v>EUSA4</v>
-      </c>
-      <c r="O44">
-        <v>-0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N45" t="str">
-        <v>EUSA20</v>
-      </c>
-      <c r="O45">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N46" t="str">
-        <v>EUSA3</v>
-      </c>
-      <c r="O46">
-        <v>-0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N47" t="str">
-        <v>EUSWE4</v>
-      </c>
-      <c r="O47">
-        <v>-0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="N48" t="str">
-        <v>EUBSV30</v>
-      </c>
-      <c r="O48">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N49" t="str">
-        <v>EUSWEB</v>
-      </c>
-      <c r="O49">
-        <v>-0.48099999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N50" t="str">
-        <v>EUSWE5</v>
-      </c>
-      <c r="O50">
-        <v>-0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N51" t="str">
-        <v>EUBSV7</v>
-      </c>
-      <c r="O51">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N52" t="str">
-        <v>EUSWEF</v>
-      </c>
-      <c r="O52">
-        <v>-0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N53" t="str">
-        <v>EUSA30</v>
-      </c>
-      <c r="O53">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N54" t="str">
-        <v>EUBSV1</v>
-      </c>
-      <c r="O54">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N55" t="str">
-        <v>EUSWE10</v>
-      </c>
-      <c r="O55">
-        <v>-0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N56" t="str">
-        <v>EUSWEA</v>
-      </c>
-      <c r="O56">
-        <v>-0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N57" t="str">
-        <v>EUSA10</v>
-      </c>
-      <c r="O57">
-        <v>-0.24299999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N58" t="str">
-        <v>EUSWEC</v>
-      </c>
-      <c r="O58">
-        <v>-0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N59" t="str">
-        <v>EUSAF0F</v>
-      </c>
-      <c r="O59">
-        <v>-0.53159999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N60" t="e">
+      <c r="J44" t="e" cm="1">
+        <f t="array" ref="J44">_xll.OracCurvePoint($M$1,C44,"value")</f>
         <v>#N/A</v>
       </c>
-      <c r="O60" t="e">
+      <c r="L44" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N61" t="e">
+      <c r="M44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O61" t="e">
+      <c r="O44" t="s">
+        <v>873</v>
+      </c>
+      <c r="P44" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>864</v>
+      </c>
+      <c r="R44" t="s">
+        <v>865</v>
+      </c>
+      <c r="S44" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L45" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N62" t="e">
+      <c r="M45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O62" t="e">
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L46" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N63" t="e">
+      <c r="M46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O63" t="e">
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L47" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="64" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N64" t="e">
+      <c r="M47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O64" t="e">
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L48" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N65" t="e">
+      <c r="M48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O65" t="e">
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L49" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N66" t="e">
+      <c r="M49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O66" t="e">
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L50" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N67" t="e">
+      <c r="M50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O67" t="e">
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L51" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N68" t="e">
+      <c r="M51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O68" t="e">
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L52" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N69" t="e">
+      <c r="M52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O69" t="e">
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M69" t="e">
         <v>#N/A</v>
       </c>
     </row>
